--- a/www/Example/results.xlsx
+++ b/www/Example/results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denti\Documents\GitHub\Cosinor_Analysis_of_Rhythms\www\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6E040F7D-898A-46BB-861E-C45AF68A1A42}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FCCE67-E2A7-4255-BA8D-2722D7C1F306}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Time</t>
   </si>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -871,11 +872,1424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>18+2*COS(2*PI()*A2/24+3)-1</f>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C2">
+        <f>18+2*COS(2*PI()*A2/24+3)</f>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D2">
+        <f>18+2*COS(2*PI()*A2/24+3)+1</f>
+        <v>17.02001500679911</v>
+      </c>
+      <c r="E2">
+        <f>A2*60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">18+2*COS(2*PI()*A3/24+3)-1</f>
+        <v>15.000114338297482</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C49" si="1">18+2*COS(2*PI()*A3/24+3)</f>
+        <v>16.000114338297482</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D49" si="2">18+2*COS(2*PI()*A3/24+3)+1</f>
+        <v>17.000114338297482</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="3">A3*60</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>15.014432267940645</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>16.014432267940645</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>17.014432267940645</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>15.062723811982721</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>16.062723811982721</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>17.062723811982721</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>15.144162688716204</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>16.144162688716204</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>17.144162688716204</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>15.25735545638106</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>16.25735545638106</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>17.25735545638106</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>15.400365355339584</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>16.400365355339584</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>17.400365355339584</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>3.5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>15.570745446570761</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>16.570745446570761</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>17.570745446570761</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>15.765580479475336</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>16.765580479475336</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>17.765580479475336</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>4.5</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>15.981536772621833</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>16.981536772621833</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>17.981536772621833</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>16.214919253960129</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>17.214919253960129</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>18.214919253960129</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>5.5</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>16.461734684528672</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>17.461734684528672</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>18.461734684528672</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>16.717759983880267</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>17.717759983880267</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>18.717759983880267</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>6.5</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>16.978614488159383</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>17.978614488159383</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>18.978614488159383</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>17.239834904475281</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>18.239834904475281</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>19.239834904475281</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>7.5</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>17.496951679080805</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>18.496951679080805</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>19.496951679080805</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>17.745565472676226</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>18.745565472676226</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>19.745565472676226</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>8.5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>17.981422434324354</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>18.981422434324354</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>19.981422434324354</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>18.200486986019484</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>19.200486986019484</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>20.200486986019484</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>9.5</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>18.399010872545951</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>19.399010872545951</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>20.399010872545951</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>18.573597295164063</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>19.573597295164063</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>20.573597295164063</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>10.5</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>18.721259031778324</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>19.721259031778324</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>20.721259031778324</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>18.839469549135696</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>19.839469549135696</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>20.839469549135696</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>11.5</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>18.926206232510047</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>19.926206232510047</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>20.926206232510047</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>18.97998499320089</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>19.97998499320089</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>20.97998499320089</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>12.5</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>18.999885661702518</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>19.999885661702518</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>20.999885661702518</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>18.985567732059355</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>19.985567732059355</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>20.985567732059355</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>13.5</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>18.937276188017279</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>19.937276188017279</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>20.937276188017279</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>18.8558373112838</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>19.8558373112838</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>20.8558373112838</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>14.5</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>18.74264454361894</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>19.74264454361894</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>20.74264454361894</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>18.599634644660416</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>19.599634644660416</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>20.599634644660416</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>15.5</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>18.429254553429239</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>19.429254553429239</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>20.429254553429239</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>18.234419520524664</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>19.234419520524664</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>20.234419520524664</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>16.5</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>18.018463227378163</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>19.018463227378163</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>20.018463227378163</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>17.785080746039871</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>18.785080746039871</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>19.785080746039871</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>17.5</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>17.538265315471328</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>18.538265315471328</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>19.538265315471328</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>17.282240016119736</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>18.282240016119736</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>19.282240016119736</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>18.5</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>17.021385511840617</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>18.021385511840617</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>19.021385511840617</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>16.760165095524719</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>17.760165095524719</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>18.760165095524719</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>19.5</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>16.503048320919191</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>17.503048320919191</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>18.503048320919191</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>16.254434527323774</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>17.254434527323774</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>18.254434527323774</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>20.5</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>16.018577565675649</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>17.018577565675649</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>18.018577565675649</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>15.799513013980516</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>16.799513013980516</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>17.799513013980516</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>21.5</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>15.600989127454049</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>16.600989127454049</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>17.600989127454049</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>15.426402704835937</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>16.426402704835937</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>17.426402704835937</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>22.5</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>15.278740968221676</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>16.278740968221676</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>17.278740968221676</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>15.160530450864304</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>16.160530450864304</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>17.160530450864304</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>23.5</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>15.073793767489953</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>16.073793767489953</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>17.073793767489953</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:C67" si="4">18+2*COS(2*PI()*A50/24+3)</f>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:D67" si="5">18+2*COS(2*PI()*A50/24+3)+1</f>
+        <v>17.02001500679911</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>24.5</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>15.000114338297482</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>16.000114338297482</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>17.000114338297482</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>15.014432267940645</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>16.014432267940645</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>17.014432267940645</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>25.5</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>15.062723811982718</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>16.062723811982718</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="5"/>
+        <v>17.062723811982718</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>15.1441626887162</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>16.1441626887162</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="5"/>
+        <v>17.1441626887162</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>26.5</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>15.25735545638106</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>16.25735545638106</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>17.25735545638106</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>27</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>15.400365355339584</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>16.400365355339584</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>17.400365355339584</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>27.5</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>15.570745446570761</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>16.570745446570761</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>17.570745446570761</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>28</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>15.765580479475332</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>16.765580479475332</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>17.765580479475332</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>28.5</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>15.981536772621833</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>16.981536772621833</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
+        <v>17.981536772621833</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>29</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>16.214919253960129</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>17.214919253960129</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="5"/>
+        <v>18.214919253960129</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>29.5</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>16.461734684528672</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>17.461734684528672</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="5"/>
+        <v>18.461734684528672</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>16.71775998388026</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>17.71775998388026</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="5"/>
+        <v>18.71775998388026</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>30.5</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>16.978614488159383</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>17.978614488159383</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="5"/>
+        <v>18.978614488159383</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>31</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>17.239834904475281</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>18.239834904475281</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="5"/>
+        <v>19.239834904475281</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>31.5</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>17.496951679080809</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>18.496951679080809</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="5"/>
+        <v>19.496951679080809</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>32</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>17.745565472676223</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="4"/>
+        <v>18.745565472676223</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="5"/>
+        <v>19.745565472676223</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>32.5</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67" si="6">18+2*COS(2*PI()*A67/24+3)-1</f>
+        <v>17.981422434324351</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>18.981422434324351</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="5"/>
+        <v>19.981422434324351</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67" si="7">A67*60</f>
+        <v>1950</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E10644-2D8C-49FE-88BD-D48638845197}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -899,1121 +2313,923 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>18+2*COS(2*PI()*A2/24+3)-1</f>
         <v>15.02001500679911</v>
       </c>
       <c r="C2">
-        <f>18+2*COS(2*PI()*A2/24+3)</f>
         <v>16.02001500679911</v>
       </c>
       <c r="D2">
-        <f>18+2*COS(2*PI()*A2/24+3)+1</f>
         <v>17.02001500679911</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">18+2*COS(2*PI()*A3/24+3)-1</f>
         <v>15.000114338297482</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C49" si="1">18+2*COS(2*PI()*A3/24+3)</f>
         <v>16.000114338297482</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D49" si="2">18+2*COS(2*PI()*A3/24+3)+1</f>
         <v>17.000114338297482</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
         <v>15.014432267940645</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
         <v>16.014432267940645</v>
       </c>
       <c r="D4">
-        <f t="shared" si="2"/>
         <v>17.014432267940645</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>1.5</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
         <v>15.062723811982721</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
         <v>16.062723811982721</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
         <v>17.062723811982721</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
         <v>15.144162688716204</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
         <v>16.144162688716204</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
         <v>17.144162688716204</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>2.5</v>
+        <v>150</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
         <v>15.25735545638106</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
         <v>16.25735545638106</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
         <v>17.25735545638106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
         <v>15.400365355339584</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
         <v>16.400365355339584</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
         <v>17.400365355339584</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>3.5</v>
+        <v>210</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
         <v>15.570745446570761</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
         <v>16.570745446570761</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
         <v>17.570745446570761</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
         <v>15.765580479475336</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
         <v>16.765580479475336</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
         <v>17.765580479475336</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>4.5</v>
+        <v>270</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
         <v>15.981536772621833</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
         <v>16.981536772621833</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
         <v>17.981536772621833</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
         <v>16.214919253960129</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
         <v>17.214919253960129</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
         <v>18.214919253960129</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>5.5</v>
+        <v>330</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
         <v>16.461734684528672</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
         <v>17.461734684528672</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
         <v>18.461734684528672</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
         <v>16.717759983880267</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
         <v>17.717759983880267</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
         <v>18.717759983880267</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>6.5</v>
+        <v>390</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
         <v>16.978614488159383</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
         <v>17.978614488159383</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
         <v>18.978614488159383</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>7</v>
+        <v>420</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
         <v>17.239834904475281</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
         <v>18.239834904475281</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
         <v>19.239834904475281</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>7.5</v>
+        <v>450</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
         <v>17.496951679080805</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
         <v>18.496951679080805</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
         <v>19.496951679080805</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
         <v>17.745565472676226</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
         <v>18.745565472676226</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
         <v>19.745565472676226</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>8.5</v>
+        <v>510</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
         <v>17.981422434324354</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
         <v>18.981422434324354</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
         <v>19.981422434324354</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>9</v>
+        <v>540</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
         <v>18.200486986019484</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
         <v>19.200486986019484</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
         <v>20.200486986019484</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>9.5</v>
+        <v>570</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
         <v>18.399010872545951</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
         <v>19.399010872545951</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
         <v>20.399010872545951</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
         <v>18.573597295164063</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
         <v>19.573597295164063</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
         <v>20.573597295164063</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>10.5</v>
+        <v>630</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
         <v>18.721259031778324</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
         <v>19.721259031778324</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
         <v>20.721259031778324</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>11</v>
+        <v>660</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
         <v>18.839469549135696</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
         <v>19.839469549135696</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
         <v>20.839469549135696</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>11.5</v>
+        <v>690</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
         <v>18.926206232510047</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
         <v>19.926206232510047</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
         <v>20.926206232510047</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>12</v>
+        <v>720</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
         <v>18.97998499320089</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
         <v>19.97998499320089</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
         <v>20.97998499320089</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>12.5</v>
+        <v>750</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
         <v>18.999885661702518</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
         <v>19.999885661702518</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
         <v>20.999885661702518</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>13</v>
+        <v>780</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
         <v>18.985567732059355</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
         <v>19.985567732059355</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
         <v>20.985567732059355</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>13.5</v>
+        <v>810</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
         <v>18.937276188017279</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
         <v>19.937276188017279</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
         <v>20.937276188017279</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>14</v>
+        <v>840</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
         <v>18.8558373112838</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
         <v>19.8558373112838</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
         <v>20.8558373112838</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>14.5</v>
+        <v>870</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
         <v>18.74264454361894</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
         <v>19.74264454361894</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
         <v>20.74264454361894</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
         <v>18.599634644660416</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
         <v>19.599634644660416</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
         <v>20.599634644660416</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>15.5</v>
+        <v>930</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
         <v>18.429254553429239</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
         <v>19.429254553429239</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
         <v>20.429254553429239</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>16</v>
+        <v>960</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
         <v>18.234419520524664</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
         <v>19.234419520524664</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
         <v>20.234419520524664</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
         <v>18.018463227378163</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
         <v>19.018463227378163</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
         <v>20.018463227378163</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>17</v>
+        <v>1020</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
         <v>17.785080746039871</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
         <v>18.785080746039871</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
         <v>19.785080746039871</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>17.5</v>
+        <v>1050</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
         <v>17.538265315471328</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
         <v>18.538265315471328</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
         <v>19.538265315471328</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>18</v>
+        <v>1080</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
         <v>17.282240016119736</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
         <v>18.282240016119736</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
         <v>19.282240016119736</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>18.5</v>
+        <v>1110</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
         <v>17.021385511840617</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
         <v>18.021385511840617</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
         <v>19.021385511840617</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>19</v>
+        <v>1140</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
         <v>16.760165095524719</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
         <v>17.760165095524719</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
         <v>18.760165095524719</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>19.5</v>
+        <v>1170</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
         <v>16.503048320919191</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
         <v>17.503048320919191</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
         <v>18.503048320919191</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
         <v>16.254434527323774</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
         <v>17.254434527323774</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
         <v>18.254434527323774</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>20.5</v>
+        <v>1230</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
         <v>16.018577565675649</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
         <v>17.018577565675649</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
         <v>18.018577565675649</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>21</v>
+        <v>1260</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
         <v>15.799513013980516</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
         <v>16.799513013980516</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
         <v>17.799513013980516</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>21.5</v>
+        <v>1290</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
         <v>15.600989127454049</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
         <v>16.600989127454049</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
         <v>17.600989127454049</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>22</v>
+        <v>1320</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
         <v>15.426402704835937</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
         <v>16.426402704835937</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
         <v>17.426402704835937</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>22.5</v>
+        <v>1350</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
         <v>15.278740968221676</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
         <v>16.278740968221676</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
         <v>17.278740968221676</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>23</v>
+        <v>1380</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
         <v>15.160530450864304</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
         <v>16.160530450864304</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
         <v>17.160530450864304</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>23.5</v>
+        <v>1410</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
         <v>15.073793767489953</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
         <v>16.073793767489953</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
         <v>17.073793767489953</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>24</v>
+        <v>1440</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
         <v>15.02001500679911</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:C67" si="3">18+2*COS(2*PI()*A50/24+3)</f>
         <v>16.02001500679911</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:D67" si="4">18+2*COS(2*PI()*A50/24+3)+1</f>
         <v>17.02001500679911</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>0</v>
+        <v>1470</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
-        <v>15.02001500679911</v>
+        <v>15.000114338297482</v>
       </c>
       <c r="C51">
-        <f t="shared" si="3"/>
-        <v>16.02001500679911</v>
+        <v>16.000114338297482</v>
       </c>
       <c r="D51">
-        <f t="shared" si="4"/>
-        <v>17.02001500679911</v>
+        <v>17.000114338297482</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>0.5</v>
+        <v>1500</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
-        <v>15.000114338297482</v>
+        <v>15.014432267940645</v>
       </c>
       <c r="C52">
-        <f t="shared" si="3"/>
-        <v>16.000114338297482</v>
+        <v>16.014432267940645</v>
       </c>
       <c r="D52">
-        <f t="shared" si="4"/>
-        <v>17.000114338297482</v>
+        <v>17.014432267940645</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>1</v>
+        <v>1530</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
-        <v>15.014432267940645</v>
+        <v>15.062723811982718</v>
       </c>
       <c r="C53">
-        <f t="shared" si="3"/>
-        <v>16.014432267940645</v>
+        <v>16.062723811982718</v>
       </c>
       <c r="D53">
-        <f t="shared" si="4"/>
-        <v>17.014432267940645</v>
+        <v>17.062723811982718</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>1.5</v>
+        <v>1560</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
-        <v>15.062723811982721</v>
+        <v>15.1441626887162</v>
       </c>
       <c r="C54">
-        <f t="shared" si="3"/>
-        <v>16.062723811982721</v>
+        <v>16.1441626887162</v>
       </c>
       <c r="D54">
-        <f t="shared" si="4"/>
-        <v>17.062723811982721</v>
+        <v>17.1441626887162</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>2</v>
+        <v>1590</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
-        <v>15.144162688716204</v>
+        <v>15.25735545638106</v>
       </c>
       <c r="C55">
-        <f t="shared" si="3"/>
-        <v>16.144162688716204</v>
+        <v>16.25735545638106</v>
       </c>
       <c r="D55">
-        <f t="shared" si="4"/>
-        <v>17.144162688716204</v>
+        <v>17.25735545638106</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>2.5</v>
+        <v>1620</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
-        <v>15.25735545638106</v>
+        <v>15.400365355339584</v>
       </c>
       <c r="C56">
-        <f t="shared" si="3"/>
-        <v>16.25735545638106</v>
+        <v>16.400365355339584</v>
       </c>
       <c r="D56">
-        <f t="shared" si="4"/>
-        <v>17.25735545638106</v>
+        <v>17.400365355339584</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
-        <v>3</v>
+        <v>1650</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
-        <v>15.400365355339584</v>
+        <v>15.570745446570761</v>
       </c>
       <c r="C57">
-        <f t="shared" si="3"/>
-        <v>16.400365355339584</v>
+        <v>16.570745446570761</v>
       </c>
       <c r="D57">
-        <f t="shared" si="4"/>
-        <v>17.400365355339584</v>
+        <v>17.570745446570761</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>3.5</v>
+        <v>1680</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
-        <v>15.570745446570761</v>
+        <v>15.765580479475332</v>
       </c>
       <c r="C58">
-        <f t="shared" si="3"/>
-        <v>16.570745446570761</v>
+        <v>16.765580479475332</v>
       </c>
       <c r="D58">
-        <f t="shared" si="4"/>
-        <v>17.570745446570761</v>
+        <v>17.765580479475332</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>4</v>
+        <v>1710</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
-        <v>15.765580479475336</v>
+        <v>15.981536772621833</v>
       </c>
       <c r="C59">
-        <f t="shared" si="3"/>
-        <v>16.765580479475336</v>
+        <v>16.981536772621833</v>
       </c>
       <c r="D59">
-        <f t="shared" si="4"/>
-        <v>17.765580479475336</v>
+        <v>17.981536772621833</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>4.5</v>
+        <v>1740</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
-        <v>15.981536772621833</v>
+        <v>16.214919253960129</v>
       </c>
       <c r="C60">
-        <f t="shared" si="3"/>
-        <v>16.981536772621833</v>
+        <v>17.214919253960129</v>
       </c>
       <c r="D60">
-        <f t="shared" si="4"/>
-        <v>17.981536772621833</v>
+        <v>18.214919253960129</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>5</v>
+        <v>1770</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
-        <v>16.214919253960129</v>
+        <v>16.461734684528672</v>
       </c>
       <c r="C61">
-        <f t="shared" si="3"/>
-        <v>17.214919253960129</v>
+        <v>17.461734684528672</v>
       </c>
       <c r="D61">
-        <f t="shared" si="4"/>
-        <v>18.214919253960129</v>
+        <v>18.461734684528672</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>5.5</v>
+        <v>1800</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
-        <v>16.461734684528672</v>
+        <v>16.71775998388026</v>
       </c>
       <c r="C62">
-        <f t="shared" si="3"/>
-        <v>17.461734684528672</v>
+        <v>17.71775998388026</v>
       </c>
       <c r="D62">
-        <f t="shared" si="4"/>
-        <v>18.461734684528672</v>
+        <v>18.71775998388026</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>6</v>
+        <v>1830</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
-        <v>16.717759983880267</v>
+        <v>16.978614488159383</v>
       </c>
       <c r="C63">
-        <f t="shared" si="3"/>
-        <v>17.717759983880267</v>
+        <v>17.978614488159383</v>
       </c>
       <c r="D63">
-        <f t="shared" si="4"/>
-        <v>18.717759983880267</v>
+        <v>18.978614488159383</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>6.5</v>
+        <v>1860</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
-        <v>16.978614488159383</v>
+        <v>17.239834904475281</v>
       </c>
       <c r="C64">
-        <f t="shared" si="3"/>
-        <v>17.978614488159383</v>
+        <v>18.239834904475281</v>
       </c>
       <c r="D64">
-        <f t="shared" si="4"/>
-        <v>18.978614488159383</v>
+        <v>19.239834904475281</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>7</v>
+        <v>1890</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
-        <v>17.239834904475281</v>
+        <v>17.496951679080809</v>
       </c>
       <c r="C65">
-        <f t="shared" si="3"/>
-        <v>18.239834904475281</v>
+        <v>18.496951679080809</v>
       </c>
       <c r="D65">
-        <f t="shared" si="4"/>
-        <v>19.239834904475281</v>
+        <v>19.496951679080809</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>7.5</v>
+        <v>1920</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
-        <v>17.496951679080805</v>
+        <v>17.745565472676223</v>
       </c>
       <c r="C66">
-        <f t="shared" si="3"/>
-        <v>18.496951679080805</v>
+        <v>18.745565472676223</v>
       </c>
       <c r="D66">
-        <f t="shared" si="4"/>
-        <v>19.496951679080805</v>
+        <v>19.745565472676223</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>8</v>
+        <v>1950</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67" si="5">18+2*COS(2*PI()*A67/24+3)-1</f>
-        <v>17.745565472676226</v>
+        <v>17.981422434324351</v>
       </c>
       <c r="C67">
-        <f t="shared" si="3"/>
-        <v>18.745565472676226</v>
+        <v>18.981422434324351</v>
       </c>
       <c r="D67">
-        <f t="shared" si="4"/>
-        <v>19.745565472676226</v>
+        <v>19.981422434324351</v>
       </c>
     </row>
   </sheetData>

--- a/www/Example/results.xlsx
+++ b/www/Example/results.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denti\Documents\GitHub\Cosinor_Analysis_of_Rhythms\www\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FCCE67-E2A7-4255-BA8D-2722D7C1F306}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA85B5CD-D00B-4CC8-9822-1EC4CDE71D12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results2" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Time</t>
   </si>
@@ -873,1423 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>18+2*COS(2*PI()*A2/24+3)-1</f>
-        <v>15.02001500679911</v>
-      </c>
-      <c r="C2">
-        <f>18+2*COS(2*PI()*A2/24+3)</f>
-        <v>16.02001500679911</v>
-      </c>
-      <c r="D2">
-        <f>18+2*COS(2*PI()*A2/24+3)+1</f>
-        <v>17.02001500679911</v>
-      </c>
-      <c r="E2">
-        <f>A2*60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>0.5</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">18+2*COS(2*PI()*A3/24+3)-1</f>
-        <v>15.000114338297482</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C49" si="1">18+2*COS(2*PI()*A3/24+3)</f>
-        <v>16.000114338297482</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D49" si="2">18+2*COS(2*PI()*A3/24+3)+1</f>
-        <v>17.000114338297482</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="3">A3*60</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>15.014432267940645</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>16.014432267940645</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="2"/>
-        <v>17.014432267940645</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>1.5</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>15.062723811982721</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>16.062723811982721</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>17.062723811982721</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>15.144162688716204</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>16.144162688716204</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>17.144162688716204</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>2.5</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>15.25735545638106</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>16.25735545638106</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>17.25735545638106</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>15.400365355339584</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>16.400365355339584</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>17.400365355339584</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>3.5</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>15.570745446570761</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>16.570745446570761</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>17.570745446570761</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>15.765580479475336</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>16.765580479475336</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>17.765580479475336</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>4.5</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>15.981536772621833</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>16.981536772621833</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>17.981536772621833</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>16.214919253960129</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>17.214919253960129</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>18.214919253960129</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>5.5</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>16.461734684528672</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>17.461734684528672</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>18.461734684528672</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>16.717759983880267</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>17.717759983880267</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>18.717759983880267</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>6.5</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>16.978614488159383</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>17.978614488159383</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>18.978614488159383</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>17.239834904475281</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>18.239834904475281</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>19.239834904475281</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>7.5</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>17.496951679080805</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>18.496951679080805</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>19.496951679080805</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>17.745565472676226</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>18.745565472676226</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>19.745565472676226</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>8.5</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>17.981422434324354</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>18.981422434324354</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>19.981422434324354</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="3"/>
-        <v>510</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>18.200486986019484</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>19.200486986019484</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>20.200486986019484</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>9.5</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>18.399010872545951</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>19.399010872545951</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>20.399010872545951</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>18.573597295164063</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>19.573597295164063</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>20.573597295164063</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>10.5</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>18.721259031778324</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>19.721259031778324</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>20.721259031778324</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="3"/>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>18.839469549135696</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>19.839469549135696</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>20.839469549135696</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="3"/>
-        <v>660</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>11.5</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>18.926206232510047</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>19.926206232510047</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>20.926206232510047</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="3"/>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>18.97998499320089</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>19.97998499320089</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>20.97998499320089</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="3"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>12.5</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>18.999885661702518</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>19.999885661702518</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>20.999885661702518</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="3"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <v>13</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>18.985567732059355</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>19.985567732059355</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="2"/>
-        <v>20.985567732059355</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="3"/>
-        <v>780</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>13.5</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>18.937276188017279</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>19.937276188017279</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="2"/>
-        <v>20.937276188017279</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="3"/>
-        <v>810</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <v>14</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>18.8558373112838</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>19.8558373112838</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>20.8558373112838</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="3"/>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <v>14.5</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>18.74264454361894</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>19.74264454361894</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>20.74264454361894</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="3"/>
-        <v>870</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>18.599634644660416</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>19.599634644660416</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>20.599634644660416</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <v>15.5</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>18.429254553429239</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>19.429254553429239</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>20.429254553429239</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="3"/>
-        <v>930</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
-        <v>16</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>18.234419520524664</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>19.234419520524664</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>20.234419520524664</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="3"/>
-        <v>960</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
-        <v>16.5</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>18.018463227378163</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>19.018463227378163</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>20.018463227378163</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="3"/>
-        <v>990</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
-        <v>17</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>17.785080746039871</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>18.785080746039871</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>19.785080746039871</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="3"/>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
-        <v>17.5</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>17.538265315471328</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>18.538265315471328</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>19.538265315471328</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="3"/>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <v>18</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>17.282240016119736</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
-        <v>18.282240016119736</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>19.282240016119736</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="3"/>
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <v>18.5</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>17.021385511840617</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
-        <v>18.021385511840617</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>19.021385511840617</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="3"/>
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <v>19</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>16.760165095524719</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="1"/>
-        <v>17.760165095524719</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>18.760165095524719</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="3"/>
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <v>19.5</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>16.503048320919191</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="1"/>
-        <v>17.503048320919191</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
-        <v>18.503048320919191</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="3"/>
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>16.254434527323774</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="1"/>
-        <v>17.254434527323774</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>18.254434527323774</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
-        <v>20.5</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>16.018577565675649</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="1"/>
-        <v>17.018577565675649</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>18.018577565675649</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="3"/>
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <v>21</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>15.799513013980516</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="1"/>
-        <v>16.799513013980516</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>17.799513013980516</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="3"/>
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
-        <v>21.5</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>15.600989127454049</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="1"/>
-        <v>16.600989127454049</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>17.600989127454049</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="3"/>
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
-        <v>22</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>15.426402704835937</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="1"/>
-        <v>16.426402704835937</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>17.426402704835937</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="3"/>
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
-        <v>22.5</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>15.278740968221676</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="1"/>
-        <v>16.278740968221676</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="2"/>
-        <v>17.278740968221676</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="3"/>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
-        <v>23</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>15.160530450864304</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="1"/>
-        <v>16.160530450864304</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="2"/>
-        <v>17.160530450864304</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="3"/>
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
-        <v>23.5</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>15.073793767489953</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="1"/>
-        <v>16.073793767489953</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="2"/>
-        <v>17.073793767489953</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="3"/>
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
-        <v>24</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
-        <v>15.02001500679911</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ref="C50:C67" si="4">18+2*COS(2*PI()*A50/24+3)</f>
-        <v>16.02001500679911</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ref="D50:D67" si="5">18+2*COS(2*PI()*A50/24+3)+1</f>
-        <v>17.02001500679911</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="3"/>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
-        <v>24.5</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="0"/>
-        <v>15.000114338297482</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="4"/>
-        <v>16.000114338297482</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="5"/>
-        <v>17.000114338297482</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="3"/>
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
-        <v>25</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="0"/>
-        <v>15.014432267940645</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="4"/>
-        <v>16.014432267940645</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="5"/>
-        <v>17.014432267940645</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
-        <v>25.5</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="0"/>
-        <v>15.062723811982718</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="4"/>
-        <v>16.062723811982718</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="5"/>
-        <v>17.062723811982718</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="3"/>
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
-        <v>26</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
-        <v>15.1441626887162</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="4"/>
-        <v>16.1441626887162</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="5"/>
-        <v>17.1441626887162</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="3"/>
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
-        <v>26.5</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>15.25735545638106</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="4"/>
-        <v>16.25735545638106</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="5"/>
-        <v>17.25735545638106</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="3"/>
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
-        <v>27</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>15.400365355339584</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="4"/>
-        <v>16.400365355339584</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="5"/>
-        <v>17.400365355339584</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="3"/>
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
-        <v>27.5</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>15.570745446570761</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="4"/>
-        <v>16.570745446570761</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="5"/>
-        <v>17.570745446570761</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="3"/>
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
-        <v>28</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>15.765580479475332</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="4"/>
-        <v>16.765580479475332</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="5"/>
-        <v>17.765580479475332</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="3"/>
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
-        <v>28.5</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>15.981536772621833</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="4"/>
-        <v>16.981536772621833</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="5"/>
-        <v>17.981536772621833</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="3"/>
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
-        <v>29</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>16.214919253960129</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="4"/>
-        <v>17.214919253960129</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="5"/>
-        <v>18.214919253960129</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="3"/>
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
-        <v>29.5</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>16.461734684528672</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="4"/>
-        <v>17.461734684528672</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="5"/>
-        <v>18.461734684528672</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="3"/>
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
-        <v>30</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>16.71775998388026</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="4"/>
-        <v>17.71775998388026</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="5"/>
-        <v>18.71775998388026</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="3"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
-        <v>30.5</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>16.978614488159383</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="4"/>
-        <v>17.978614488159383</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="5"/>
-        <v>18.978614488159383</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="3"/>
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64">
-        <v>31</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>17.239834904475281</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="4"/>
-        <v>18.239834904475281</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="5"/>
-        <v>19.239834904475281</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="3"/>
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
-        <v>31.5</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>17.496951679080809</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="4"/>
-        <v>18.496951679080809</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="5"/>
-        <v>19.496951679080809</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="3"/>
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
-        <v>32</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="0"/>
-        <v>17.745565472676223</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="4"/>
-        <v>18.745565472676223</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="5"/>
-        <v>19.745565472676223</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="3"/>
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67">
-        <v>32.5</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ref="B67" si="6">18+2*COS(2*PI()*A67/24+3)-1</f>
-        <v>17.981422434324351</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="4"/>
-        <v>18.981422434324351</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="5"/>
-        <v>19.981422434324351</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67" si="7">A67*60</f>
-        <v>1950</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E10644-2D8C-49FE-88BD-D48638845197}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2313,922 +899,1120 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <f>18+2*COS(2*PI()*A2/24+3)-1</f>
         <v>15.02001500679911</v>
       </c>
       <c r="C2">
+        <f>18+2*COS(2*PI()*A2/24+3)</f>
         <v>16.02001500679911</v>
       </c>
       <c r="D2">
+        <f>18+2*COS(2*PI()*A2/24+3)+1</f>
         <v>17.02001500679911</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">18+2*COS(2*PI()*A3/24+3)-1</f>
         <v>15.000114338297482</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C49" si="1">18+2*COS(2*PI()*A3/24+3)</f>
         <v>16.000114338297482</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D49" si="2">18+2*COS(2*PI()*A3/24+3)+1</f>
         <v>17.000114338297482</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
         <v>15.014432267940645</v>
       </c>
       <c r="C4">
+        <f t="shared" si="1"/>
         <v>16.014432267940645</v>
       </c>
       <c r="D4">
+        <f t="shared" si="2"/>
         <v>17.014432267940645</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>90</v>
+        <v>1.5</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
         <v>15.062723811982721</v>
       </c>
       <c r="C5">
+        <f t="shared" si="1"/>
         <v>16.062723811982721</v>
       </c>
       <c r="D5">
+        <f t="shared" si="2"/>
         <v>17.062723811982721</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
         <v>15.144162688716204</v>
       </c>
       <c r="C6">
+        <f t="shared" si="1"/>
         <v>16.144162688716204</v>
       </c>
       <c r="D6">
+        <f t="shared" si="2"/>
         <v>17.144162688716204</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
         <v>15.25735545638106</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
         <v>16.25735545638106</v>
       </c>
       <c r="D7">
+        <f t="shared" si="2"/>
         <v>17.25735545638106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
         <v>15.400365355339584</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
         <v>16.400365355339584</v>
       </c>
       <c r="D8">
+        <f t="shared" si="2"/>
         <v>17.400365355339584</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>210</v>
+        <v>3.5</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
         <v>15.570745446570761</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
         <v>16.570745446570761</v>
       </c>
       <c r="D9">
+        <f t="shared" si="2"/>
         <v>17.570745446570761</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
         <v>15.765580479475336</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
         <v>16.765580479475336</v>
       </c>
       <c r="D10">
+        <f t="shared" si="2"/>
         <v>17.765580479475336</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>270</v>
+        <v>4.5</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
         <v>15.981536772621833</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
         <v>16.981536772621833</v>
       </c>
       <c r="D11">
+        <f t="shared" si="2"/>
         <v>17.981536772621833</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
         <v>16.214919253960129</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
         <v>17.214919253960129</v>
       </c>
       <c r="D12">
+        <f t="shared" si="2"/>
         <v>18.214919253960129</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>330</v>
+        <v>5.5</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
         <v>16.461734684528672</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
         <v>17.461734684528672</v>
       </c>
       <c r="D13">
+        <f t="shared" si="2"/>
         <v>18.461734684528672</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
         <v>16.717759983880267</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
         <v>17.717759983880267</v>
       </c>
       <c r="D14">
+        <f t="shared" si="2"/>
         <v>18.717759983880267</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>390</v>
+        <v>6.5</v>
       </c>
       <c r="B15">
+        <f t="shared" si="0"/>
         <v>16.978614488159383</v>
       </c>
       <c r="C15">
+        <f t="shared" si="1"/>
         <v>17.978614488159383</v>
       </c>
       <c r="D15">
+        <f t="shared" si="2"/>
         <v>18.978614488159383</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>420</v>
+        <v>7</v>
       </c>
       <c r="B16">
+        <f t="shared" si="0"/>
         <v>17.239834904475281</v>
       </c>
       <c r="C16">
+        <f t="shared" si="1"/>
         <v>18.239834904475281</v>
       </c>
       <c r="D16">
+        <f t="shared" si="2"/>
         <v>19.239834904475281</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>450</v>
+        <v>7.5</v>
       </c>
       <c r="B17">
+        <f t="shared" si="0"/>
         <v>17.496951679080805</v>
       </c>
       <c r="C17">
+        <f t="shared" si="1"/>
         <v>18.496951679080805</v>
       </c>
       <c r="D17">
+        <f t="shared" si="2"/>
         <v>19.496951679080805</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>480</v>
+        <v>8</v>
       </c>
       <c r="B18">
+        <f t="shared" si="0"/>
         <v>17.745565472676226</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
         <v>18.745565472676226</v>
       </c>
       <c r="D18">
+        <f t="shared" si="2"/>
         <v>19.745565472676226</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>510</v>
+        <v>8.5</v>
       </c>
       <c r="B19">
+        <f t="shared" si="0"/>
         <v>17.981422434324354</v>
       </c>
       <c r="C19">
+        <f t="shared" si="1"/>
         <v>18.981422434324354</v>
       </c>
       <c r="D19">
+        <f t="shared" si="2"/>
         <v>19.981422434324354</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>540</v>
+        <v>9</v>
       </c>
       <c r="B20">
+        <f t="shared" si="0"/>
         <v>18.200486986019484</v>
       </c>
       <c r="C20">
+        <f t="shared" si="1"/>
         <v>19.200486986019484</v>
       </c>
       <c r="D20">
+        <f t="shared" si="2"/>
         <v>20.200486986019484</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>570</v>
+        <v>9.5</v>
       </c>
       <c r="B21">
+        <f t="shared" si="0"/>
         <v>18.399010872545951</v>
       </c>
       <c r="C21">
+        <f t="shared" si="1"/>
         <v>19.399010872545951</v>
       </c>
       <c r="D21">
+        <f t="shared" si="2"/>
         <v>20.399010872545951</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="B22">
+        <f t="shared" si="0"/>
         <v>18.573597295164063</v>
       </c>
       <c r="C22">
+        <f t="shared" si="1"/>
         <v>19.573597295164063</v>
       </c>
       <c r="D22">
+        <f t="shared" si="2"/>
         <v>20.573597295164063</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>630</v>
+        <v>10.5</v>
       </c>
       <c r="B23">
+        <f t="shared" si="0"/>
         <v>18.721259031778324</v>
       </c>
       <c r="C23">
+        <f t="shared" si="1"/>
         <v>19.721259031778324</v>
       </c>
       <c r="D23">
+        <f t="shared" si="2"/>
         <v>20.721259031778324</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>660</v>
+        <v>11</v>
       </c>
       <c r="B24">
+        <f t="shared" si="0"/>
         <v>18.839469549135696</v>
       </c>
       <c r="C24">
+        <f t="shared" si="1"/>
         <v>19.839469549135696</v>
       </c>
       <c r="D24">
+        <f t="shared" si="2"/>
         <v>20.839469549135696</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>690</v>
+        <v>11.5</v>
       </c>
       <c r="B25">
+        <f t="shared" si="0"/>
         <v>18.926206232510047</v>
       </c>
       <c r="C25">
+        <f t="shared" si="1"/>
         <v>19.926206232510047</v>
       </c>
       <c r="D25">
+        <f t="shared" si="2"/>
         <v>20.926206232510047</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>720</v>
+        <v>12</v>
       </c>
       <c r="B26">
+        <f t="shared" si="0"/>
         <v>18.97998499320089</v>
       </c>
       <c r="C26">
+        <f t="shared" si="1"/>
         <v>19.97998499320089</v>
       </c>
       <c r="D26">
+        <f t="shared" si="2"/>
         <v>20.97998499320089</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>750</v>
+        <v>12.5</v>
       </c>
       <c r="B27">
+        <f t="shared" si="0"/>
         <v>18.999885661702518</v>
       </c>
       <c r="C27">
+        <f t="shared" si="1"/>
         <v>19.999885661702518</v>
       </c>
       <c r="D27">
+        <f t="shared" si="2"/>
         <v>20.999885661702518</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>780</v>
+        <v>13</v>
       </c>
       <c r="B28">
+        <f t="shared" si="0"/>
         <v>18.985567732059355</v>
       </c>
       <c r="C28">
+        <f t="shared" si="1"/>
         <v>19.985567732059355</v>
       </c>
       <c r="D28">
+        <f t="shared" si="2"/>
         <v>20.985567732059355</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>810</v>
+        <v>13.5</v>
       </c>
       <c r="B29">
+        <f t="shared" si="0"/>
         <v>18.937276188017279</v>
       </c>
       <c r="C29">
+        <f t="shared" si="1"/>
         <v>19.937276188017279</v>
       </c>
       <c r="D29">
+        <f t="shared" si="2"/>
         <v>20.937276188017279</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>840</v>
+        <v>14</v>
       </c>
       <c r="B30">
+        <f t="shared" si="0"/>
         <v>18.8558373112838</v>
       </c>
       <c r="C30">
+        <f t="shared" si="1"/>
         <v>19.8558373112838</v>
       </c>
       <c r="D30">
+        <f t="shared" si="2"/>
         <v>20.8558373112838</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>870</v>
+        <v>14.5</v>
       </c>
       <c r="B31">
+        <f t="shared" si="0"/>
         <v>18.74264454361894</v>
       </c>
       <c r="C31">
+        <f t="shared" si="1"/>
         <v>19.74264454361894</v>
       </c>
       <c r="D31">
+        <f t="shared" si="2"/>
         <v>20.74264454361894</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>900</v>
+        <v>15</v>
       </c>
       <c r="B32">
+        <f t="shared" si="0"/>
         <v>18.599634644660416</v>
       </c>
       <c r="C32">
+        <f t="shared" si="1"/>
         <v>19.599634644660416</v>
       </c>
       <c r="D32">
+        <f t="shared" si="2"/>
         <v>20.599634644660416</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>930</v>
+        <v>15.5</v>
       </c>
       <c r="B33">
+        <f t="shared" si="0"/>
         <v>18.429254553429239</v>
       </c>
       <c r="C33">
+        <f t="shared" si="1"/>
         <v>19.429254553429239</v>
       </c>
       <c r="D33">
+        <f t="shared" si="2"/>
         <v>20.429254553429239</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>960</v>
+        <v>16</v>
       </c>
       <c r="B34">
+        <f t="shared" si="0"/>
         <v>18.234419520524664</v>
       </c>
       <c r="C34">
+        <f t="shared" si="1"/>
         <v>19.234419520524664</v>
       </c>
       <c r="D34">
+        <f t="shared" si="2"/>
         <v>20.234419520524664</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="B35">
+        <f t="shared" si="0"/>
         <v>18.018463227378163</v>
       </c>
       <c r="C35">
+        <f t="shared" si="1"/>
         <v>19.018463227378163</v>
       </c>
       <c r="D35">
+        <f t="shared" si="2"/>
         <v>20.018463227378163</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>1020</v>
+        <v>17</v>
       </c>
       <c r="B36">
+        <f t="shared" si="0"/>
         <v>17.785080746039871</v>
       </c>
       <c r="C36">
+        <f t="shared" si="1"/>
         <v>18.785080746039871</v>
       </c>
       <c r="D36">
+        <f t="shared" si="2"/>
         <v>19.785080746039871</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>1050</v>
+        <v>17.5</v>
       </c>
       <c r="B37">
+        <f t="shared" si="0"/>
         <v>17.538265315471328</v>
       </c>
       <c r="C37">
+        <f t="shared" si="1"/>
         <v>18.538265315471328</v>
       </c>
       <c r="D37">
+        <f t="shared" si="2"/>
         <v>19.538265315471328</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>1080</v>
+        <v>18</v>
       </c>
       <c r="B38">
+        <f t="shared" si="0"/>
         <v>17.282240016119736</v>
       </c>
       <c r="C38">
+        <f t="shared" si="1"/>
         <v>18.282240016119736</v>
       </c>
       <c r="D38">
+        <f t="shared" si="2"/>
         <v>19.282240016119736</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>1110</v>
+        <v>18.5</v>
       </c>
       <c r="B39">
+        <f t="shared" si="0"/>
         <v>17.021385511840617</v>
       </c>
       <c r="C39">
+        <f t="shared" si="1"/>
         <v>18.021385511840617</v>
       </c>
       <c r="D39">
+        <f t="shared" si="2"/>
         <v>19.021385511840617</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>1140</v>
+        <v>19</v>
       </c>
       <c r="B40">
+        <f t="shared" si="0"/>
         <v>16.760165095524719</v>
       </c>
       <c r="C40">
+        <f t="shared" si="1"/>
         <v>17.760165095524719</v>
       </c>
       <c r="D40">
+        <f t="shared" si="2"/>
         <v>18.760165095524719</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>1170</v>
+        <v>19.5</v>
       </c>
       <c r="B41">
+        <f t="shared" si="0"/>
         <v>16.503048320919191</v>
       </c>
       <c r="C41">
+        <f t="shared" si="1"/>
         <v>17.503048320919191</v>
       </c>
       <c r="D41">
+        <f t="shared" si="2"/>
         <v>18.503048320919191</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="B42">
+        <f t="shared" si="0"/>
         <v>16.254434527323774</v>
       </c>
       <c r="C42">
+        <f t="shared" si="1"/>
         <v>17.254434527323774</v>
       </c>
       <c r="D42">
+        <f t="shared" si="2"/>
         <v>18.254434527323774</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>1230</v>
+        <v>20.5</v>
       </c>
       <c r="B43">
+        <f t="shared" si="0"/>
         <v>16.018577565675649</v>
       </c>
       <c r="C43">
+        <f t="shared" si="1"/>
         <v>17.018577565675649</v>
       </c>
       <c r="D43">
+        <f t="shared" si="2"/>
         <v>18.018577565675649</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>1260</v>
+        <v>21</v>
       </c>
       <c r="B44">
+        <f t="shared" si="0"/>
         <v>15.799513013980516</v>
       </c>
       <c r="C44">
+        <f t="shared" si="1"/>
         <v>16.799513013980516</v>
       </c>
       <c r="D44">
+        <f t="shared" si="2"/>
         <v>17.799513013980516</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>1290</v>
+        <v>21.5</v>
       </c>
       <c r="B45">
+        <f t="shared" si="0"/>
         <v>15.600989127454049</v>
       </c>
       <c r="C45">
+        <f t="shared" si="1"/>
         <v>16.600989127454049</v>
       </c>
       <c r="D45">
+        <f t="shared" si="2"/>
         <v>17.600989127454049</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>1320</v>
+        <v>22</v>
       </c>
       <c r="B46">
+        <f t="shared" si="0"/>
         <v>15.426402704835937</v>
       </c>
       <c r="C46">
+        <f t="shared" si="1"/>
         <v>16.426402704835937</v>
       </c>
       <c r="D46">
+        <f t="shared" si="2"/>
         <v>17.426402704835937</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>1350</v>
+        <v>22.5</v>
       </c>
       <c r="B47">
+        <f t="shared" si="0"/>
         <v>15.278740968221676</v>
       </c>
       <c r="C47">
+        <f t="shared" si="1"/>
         <v>16.278740968221676</v>
       </c>
       <c r="D47">
+        <f t="shared" si="2"/>
         <v>17.278740968221676</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>1380</v>
+        <v>23</v>
       </c>
       <c r="B48">
+        <f t="shared" si="0"/>
         <v>15.160530450864304</v>
       </c>
       <c r="C48">
+        <f t="shared" si="1"/>
         <v>16.160530450864304</v>
       </c>
       <c r="D48">
+        <f t="shared" si="2"/>
         <v>17.160530450864304</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>1410</v>
+        <v>23.5</v>
       </c>
       <c r="B49">
+        <f t="shared" si="0"/>
         <v>15.073793767489953</v>
       </c>
       <c r="C49">
+        <f t="shared" si="1"/>
         <v>16.073793767489953</v>
       </c>
       <c r="D49">
+        <f t="shared" si="2"/>
         <v>17.073793767489953</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>1440</v>
+        <v>24</v>
       </c>
       <c r="B50">
+        <f t="shared" si="0"/>
         <v>15.02001500679911</v>
       </c>
       <c r="C50">
+        <f t="shared" ref="C50:C67" si="3">18+2*COS(2*PI()*A50/24+3)</f>
         <v>16.02001500679911</v>
       </c>
       <c r="D50">
+        <f t="shared" ref="D50:D67" si="4">18+2*COS(2*PI()*A50/24+3)+1</f>
         <v>17.02001500679911</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>1470</v>
+        <v>24.5</v>
       </c>
       <c r="B51">
+        <f t="shared" si="0"/>
         <v>15.000114338297482</v>
       </c>
       <c r="C51">
+        <f t="shared" si="3"/>
         <v>16.000114338297482</v>
       </c>
       <c r="D51">
+        <f t="shared" si="4"/>
         <v>17.000114338297482</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>1500</v>
+        <v>25</v>
       </c>
       <c r="B52">
+        <f t="shared" si="0"/>
         <v>15.014432267940645</v>
       </c>
       <c r="C52">
+        <f t="shared" si="3"/>
         <v>16.014432267940645</v>
       </c>
       <c r="D52">
+        <f t="shared" si="4"/>
         <v>17.014432267940645</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>1530</v>
+        <v>25.5</v>
       </c>
       <c r="B53">
+        <f t="shared" si="0"/>
         <v>15.062723811982718</v>
       </c>
       <c r="C53">
+        <f t="shared" si="3"/>
         <v>16.062723811982718</v>
       </c>
       <c r="D53">
+        <f t="shared" si="4"/>
         <v>17.062723811982718</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>1560</v>
+        <v>26</v>
       </c>
       <c r="B54">
+        <f t="shared" si="0"/>
         <v>15.1441626887162</v>
       </c>
       <c r="C54">
+        <f t="shared" si="3"/>
         <v>16.1441626887162</v>
       </c>
       <c r="D54">
+        <f t="shared" si="4"/>
         <v>17.1441626887162</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>1590</v>
+        <v>26.5</v>
       </c>
       <c r="B55">
+        <f t="shared" si="0"/>
         <v>15.25735545638106</v>
       </c>
       <c r="C55">
+        <f t="shared" si="3"/>
         <v>16.25735545638106</v>
       </c>
       <c r="D55">
+        <f t="shared" si="4"/>
         <v>17.25735545638106</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>1620</v>
+        <v>27</v>
       </c>
       <c r="B56">
+        <f t="shared" si="0"/>
         <v>15.400365355339584</v>
       </c>
       <c r="C56">
+        <f t="shared" si="3"/>
         <v>16.400365355339584</v>
       </c>
       <c r="D56">
+        <f t="shared" si="4"/>
         <v>17.400365355339584</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
-        <v>1650</v>
+        <v>27.5</v>
       </c>
       <c r="B57">
+        <f t="shared" si="0"/>
         <v>15.570745446570761</v>
       </c>
       <c r="C57">
+        <f t="shared" si="3"/>
         <v>16.570745446570761</v>
       </c>
       <c r="D57">
+        <f t="shared" si="4"/>
         <v>17.570745446570761</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
-        <v>1680</v>
+        <v>28</v>
       </c>
       <c r="B58">
+        <f t="shared" si="0"/>
         <v>15.765580479475332</v>
       </c>
       <c r="C58">
+        <f t="shared" si="3"/>
         <v>16.765580479475332</v>
       </c>
       <c r="D58">
+        <f t="shared" si="4"/>
         <v>17.765580479475332</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
-        <v>1710</v>
+        <v>28.5</v>
       </c>
       <c r="B59">
+        <f t="shared" si="0"/>
         <v>15.981536772621833</v>
       </c>
       <c r="C59">
+        <f t="shared" si="3"/>
         <v>16.981536772621833</v>
       </c>
       <c r="D59">
+        <f t="shared" si="4"/>
         <v>17.981536772621833</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
-        <v>1740</v>
+        <v>29</v>
       </c>
       <c r="B60">
+        <f t="shared" si="0"/>
         <v>16.214919253960129</v>
       </c>
       <c r="C60">
+        <f t="shared" si="3"/>
         <v>17.214919253960129</v>
       </c>
       <c r="D60">
+        <f t="shared" si="4"/>
         <v>18.214919253960129</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
-        <v>1770</v>
+        <v>29.5</v>
       </c>
       <c r="B61">
+        <f t="shared" si="0"/>
         <v>16.461734684528672</v>
       </c>
       <c r="C61">
+        <f t="shared" si="3"/>
         <v>17.461734684528672</v>
       </c>
       <c r="D61">
+        <f t="shared" si="4"/>
         <v>18.461734684528672</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>1800</v>
+        <v>30</v>
       </c>
       <c r="B62">
+        <f t="shared" si="0"/>
         <v>16.71775998388026</v>
       </c>
       <c r="C62">
+        <f t="shared" si="3"/>
         <v>17.71775998388026</v>
       </c>
       <c r="D62">
+        <f t="shared" si="4"/>
         <v>18.71775998388026</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>1830</v>
+        <v>30.5</v>
       </c>
       <c r="B63">
+        <f t="shared" si="0"/>
         <v>16.978614488159383</v>
       </c>
       <c r="C63">
+        <f t="shared" si="3"/>
         <v>17.978614488159383</v>
       </c>
       <c r="D63">
+        <f t="shared" si="4"/>
         <v>18.978614488159383</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>1860</v>
+        <v>31</v>
       </c>
       <c r="B64">
+        <f t="shared" si="0"/>
         <v>17.239834904475281</v>
       </c>
       <c r="C64">
+        <f t="shared" si="3"/>
         <v>18.239834904475281</v>
       </c>
       <c r="D64">
+        <f t="shared" si="4"/>
         <v>19.239834904475281</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>1890</v>
+        <v>31.5</v>
       </c>
       <c r="B65">
+        <f t="shared" si="0"/>
         <v>17.496951679080809</v>
       </c>
       <c r="C65">
+        <f t="shared" si="3"/>
         <v>18.496951679080809</v>
       </c>
       <c r="D65">
+        <f t="shared" si="4"/>
         <v>19.496951679080809</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>1920</v>
+        <v>32</v>
       </c>
       <c r="B66">
+        <f t="shared" si="0"/>
         <v>17.745565472676223</v>
       </c>
       <c r="C66">
+        <f t="shared" si="3"/>
         <v>18.745565472676223</v>
       </c>
       <c r="D66">
+        <f t="shared" si="4"/>
         <v>19.745565472676223</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>1950</v>
+        <v>32.5</v>
       </c>
       <c r="B67">
+        <f t="shared" ref="B67" si="5">18+2*COS(2*PI()*A67/24+3)-1</f>
         <v>17.981422434324351</v>
       </c>
       <c r="C67">
+        <f t="shared" si="3"/>
         <v>18.981422434324351</v>
       </c>
       <c r="D67">
+        <f t="shared" si="4"/>
         <v>19.981422434324351</v>
       </c>
     </row>

--- a/www/Example/results.xlsx
+++ b/www/Example/results.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denti\Documents\GitHub\Cosinor_Analysis_of_Rhythms\www\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA85B5CD-D00B-4CC8-9822-1EC4CDE71D12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0113A76C-4C43-4E7A-BB65-4018DE5B6E81}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>Time</t>
   </si>
@@ -874,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C67"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2019,4 +2021,776 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CAF1DC-6092-4FA3-AEE2-E3F968629B99}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>18+2*COS(2*PI()*A2/12+3)-1</f>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C2">
+        <f>18+2*COS(2*PI()*A2/12+3)</f>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D2">
+        <f>18+2*COS(2*PI()*A2/12+3)+1</f>
+        <v>17.02001500679911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B22" si="0">18+2*COS(2*PI()*A3/12+3)-1</f>
+        <v>17.745565472676226</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C22" si="1">18+2*COS(2*PI()*A3/12+3)</f>
+        <v>18.745565472676226</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D22" si="2">18+2*COS(2*PI()*A3/12+3)+1</f>
+        <v>19.745565472676226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>18.234419520524664</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>19.234419520524664</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>20.234419520524664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>17.02001500679911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>17.745565472676223</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>18.745565472676223</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>19.745565472676223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>18.234419520524664</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>19.234419520524664</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>20.234419520524664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>17.02001500679911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>17.745565472676219</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>18.745565472676219</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>19.745565472676219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>18.234419520524668</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>19.234419520524668</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>20.234419520524668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>17.02001500679911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>17.745565472676226</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>18.745565472676226</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>19.745565472676226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>18.234419520524668</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>19.234419520524668</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>20.234419520524668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>17.02001500679911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>17.745565472676226</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>18.745565472676226</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>19.745565472676226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>18.234419520524675</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>19.234419520524675</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>20.234419520524675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>15.020015006799113</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>16.020015006799113</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>17.020015006799113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>17.745565472676219</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>18.745565472676219</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>19.745565472676219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>18.234419520524664</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>19.234419520524664</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>20.234419520524664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>72</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>17.02001500679911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>17.745565472676219</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>18.745565472676219</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>19.745565472676219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>18.234419520524664</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>19.234419520524664</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>20.234419520524664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382EE870-FC2F-481F-A416-1691CA93D51C}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>18+2*COS(2*PI()*A2/9+3)-1</f>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C2">
+        <f>18+2*COS(2*PI()*A2/9+3)</f>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D2">
+        <f>18+2*COS(2*PI()*A2/9+3)+1</f>
+        <v>17.02001500679911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B22" si="0">18+2*COS(2*PI()*A3/9+3)-1</f>
+        <v>18.764045516612203</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C22" si="1">18+2*COS(2*PI()*A3/9+3)</f>
+        <v>19.764045516612203</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D22" si="2">18+2*COS(2*PI()*A3/9+3)+1</f>
+        <v>20.764045516612203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>15.664663883818985</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>16.664663883818985</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>17.664663883818985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>17.745565472676223</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>18.745565472676223</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>19.745565472676223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>16.934131370207801</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>17.934131370207801</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>18.934131370207801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>16.378227058037787</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>17.378227058037787</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>18.378227058037787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>18.234419520524668</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>19.234419520524668</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>20.234419520524668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>15.301823113179992</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>16.301823113179992</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>17.301823113179992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>18.957109058143224</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>19.957109058143224</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>20.957109058143224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>17.02001500679911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>18.764045516612203</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>19.764045516612203</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>20.764045516612203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>15.664663883818996</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>16.664663883818996</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>17.664663883818996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>17.745565472676219</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>18.745565472676219</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>19.745565472676219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>16.934131370207801</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>17.934131370207801</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>18.934131370207801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>16.378227058037783</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>17.378227058037783</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>18.378227058037783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>18.234419520524675</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>19.234419520524675</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>20.234419520524675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>15.301823113179992</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>16.301823113179992</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>17.301823113179992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>18.957109058143224</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>19.957109058143224</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>20.957109058143224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>72</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>17.02001500679911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>18.7640455166122</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>19.7640455166122</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>20.7640455166122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>15.664663883818985</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>16.664663883818985</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>17.664663883818985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/www/Example/results.xlsx
+++ b/www/Example/results.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denti\Documents\GitHub\Cosinor_Analysis_of_Rhythms\www\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0113A76C-4C43-4E7A-BB65-4018DE5B6E81}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6BC33F-C722-4497-B3BF-5E808A0FCCB9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="4650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>Time</t>
   </si>
@@ -2413,6 +2414,392 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382EE870-FC2F-481F-A416-1691CA93D51C}">
   <dimension ref="A1:D22"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>18+2*COS(2*PI()*A2/9+3)-1</f>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C2">
+        <f>18+2*COS(2*PI()*A2/9+3)</f>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D2">
+        <f>18+2*COS(2*PI()*A2/9+3)+1</f>
+        <v>17.02001500679911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B22" si="0">18+2*COS(2*PI()*A3/9+3)-1</f>
+        <v>18.764045516612203</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C22" si="1">18+2*COS(2*PI()*A3/9+3)</f>
+        <v>19.764045516612203</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D22" si="2">18+2*COS(2*PI()*A3/9+3)+1</f>
+        <v>20.764045516612203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>15.664663883818985</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>16.664663883818985</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>17.664663883818985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>17.745565472676223</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>18.745565472676223</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>19.745565472676223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>16.934131370207801</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>17.934131370207801</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>18.934131370207801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>16.378227058037787</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>17.378227058037787</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>18.378227058037787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>18.234419520524668</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>19.234419520524668</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>20.234419520524668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>15.301823113179992</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>16.301823113179992</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>17.301823113179992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>18.957109058143224</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>19.957109058143224</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>20.957109058143224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>17.02001500679911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>18.764045516612203</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>19.764045516612203</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>20.764045516612203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>15.664663883818996</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>16.664663883818996</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>17.664663883818996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>17.745565472676219</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>18.745565472676219</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>19.745565472676219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>16.934131370207801</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>17.934131370207801</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>18.934131370207801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>16.378227058037783</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>17.378227058037783</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>18.378227058037783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>18.234419520524675</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>19.234419520524675</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>20.234419520524675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>15.301823113179992</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>16.301823113179992</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>17.301823113179992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>18.957109058143224</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>19.957109058143224</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>20.957109058143224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>72</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>15.02001500679911</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>16.02001500679911</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>17.02001500679911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>18.7640455166122</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>19.7640455166122</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>20.7640455166122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>15.664663883818985</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>16.664663883818985</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>17.664663883818985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23C705C-AED6-4786-84AD-FA026A364B8A}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D22"/>
     </sheetView>
@@ -2438,16 +2825,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>18+2*COS(2*PI()*A2/9+3)-1</f>
-        <v>15.02001500679911</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f>18+2*COS(2*PI()*A2/9+3)</f>
-        <v>16.02001500679911</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <f>18+2*COS(2*PI()*A2/9+3)+1</f>
-        <v>17.02001500679911</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2455,16 +2839,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B22" si="0">18+2*COS(2*PI()*A3/9+3)-1</f>
-        <v>18.764045516612203</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C22" si="1">18+2*COS(2*PI()*A3/9+3)</f>
-        <v>19.764045516612203</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D22" si="2">18+2*COS(2*PI()*A3/9+3)+1</f>
-        <v>20.764045516612203</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2472,16 +2853,13 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>15.664663883818985</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
-        <v>16.664663883818985</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" si="2"/>
-        <v>17.664663883818985</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2489,16 +2867,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>17.745565472676223</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
-        <v>18.745565472676223</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
-        <v>19.745565472676223</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2506,16 +2881,13 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>16.934131370207801</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
-        <v>17.934131370207801</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
-        <v>18.934131370207801</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2523,16 +2895,13 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>16.378227058037787</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
-        <v>17.378227058037787</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
-        <v>18.378227058037787</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2540,16 +2909,13 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>18.234419520524668</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>19.234419520524668</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
-        <v>20.234419520524668</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2557,16 +2923,13 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>15.301823113179992</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>16.301823113179992</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
-        <v>17.301823113179992</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2574,16 +2937,13 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>18.957109058143224</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>19.957109058143224</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>20.957109058143224</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2591,16 +2951,13 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>15.02001500679911</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>16.02001500679911</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>17.02001500679911</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2608,16 +2965,13 @@
         <v>40</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>18.764045516612203</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>19.764045516612203</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>20.764045516612203</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2625,16 +2979,13 @@
         <v>44</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>15.664663883818996</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>16.664663883818996</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
-        <v>17.664663883818996</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2642,16 +2993,13 @@
         <v>48</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>17.745565472676219</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
-        <v>18.745565472676219</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>19.745565472676219</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2659,16 +3007,13 @@
         <v>52</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>16.934131370207801</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>17.934131370207801</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>18.934131370207801</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2676,16 +3021,13 @@
         <v>56</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>16.378227058037783</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>17.378227058037783</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
-        <v>18.378227058037783</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2693,16 +3035,13 @@
         <v>60</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>18.234419520524675</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
-        <v>19.234419520524675</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
-        <v>20.234419520524675</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2710,16 +3049,13 @@
         <v>64</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>15.301823113179992</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
-        <v>16.301823113179992</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
-        <v>17.301823113179992</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2727,16 +3063,13 @@
         <v>68</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>18.957109058143224</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
-        <v>19.957109058143224</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
-        <v>20.957109058143224</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2744,16 +3077,13 @@
         <v>72</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>15.02001500679911</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
-        <v>16.02001500679911</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
-        <v>17.02001500679911</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2761,16 +3091,13 @@
         <v>76</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>18.7640455166122</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
-        <v>19.7640455166122</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
-        <v>20.7640455166122</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2778,16 +3105,13 @@
         <v>80</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>15.664663883818985</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
-        <v>16.664663883818985</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
-        <v>17.664663883818985</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
